--- a/gannt chart.xlsx
+++ b/gannt chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="-21660" windowWidth="22300" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="12300" yWindow="280" windowWidth="13280" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Start Date</t>
   </si>
@@ -30,22 +30,16 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Get GPS tracking on google glass</t>
+    <t>Application Local Functionality</t>
   </si>
   <si>
-    <t>Get Local functionality working(speed, route, distance)</t>
+    <t>Web Design</t>
   </si>
   <si>
-    <t>Get Home Page website up</t>
+    <t>Database Backend</t>
   </si>
   <si>
-    <t>Get interconnectivity between users</t>
-  </si>
-  <si>
-    <t>Get accounts and database working</t>
-  </si>
-  <si>
-    <t>Get Basic Sample Glass App running</t>
+    <t>Integrate with others</t>
   </si>
 </sst>
 </file>
@@ -164,53 +158,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Get Basic Sample Glass App running</c:v>
+                  <c:v>Application Local Functionality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Get GPS tracking on google glass</c:v>
+                  <c:v>Web Design</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Get Local functionality working(speed, route, distance)</c:v>
+                  <c:v>Database Backend</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Get Home Page website up</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Get accounts and database working</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Get interconnectivity between users</c:v>
+                  <c:v>Integrate with others</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41671.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41685.0</c:v>
+                  <c:v>41699.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41699.0</c:v>
+                  <c:v>41713.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41713.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>41730.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41744.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,52 +215,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Get Basic Sample Glass App running</c:v>
+                  <c:v>Application Local Functionality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Get GPS tracking on google glass</c:v>
+                  <c:v>Web Design</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Get Local functionality working(speed, route, distance)</c:v>
+                  <c:v>Database Backend</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Get Home Page website up</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Get accounts and database working</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Get interconnectivity between users</c:v>
+                  <c:v>Integrate with others</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -302,53 +272,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Get Basic Sample Glass App running</c:v>
+                  <c:v>Application Local Functionality</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Get GPS tracking on google glass</c:v>
+                  <c:v>Web Design</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Get Local functionality working(speed, route, distance)</c:v>
+                  <c:v>Database Backend</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Get Home Page website up</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Get accounts and database working</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Get interconnectivity between users</c:v>
+                  <c:v>Integrate with others</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,11 +322,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="601420872"/>
-        <c:axId val="499846664"/>
+        <c:axId val="414274504"/>
+        <c:axId val="414277480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601420872"/>
+        <c:axId val="414274504"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -377,7 +335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499846664"/>
+        <c:crossAx val="414277480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -385,7 +343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499846664"/>
+        <c:axId val="414277480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="41670.0"/>
@@ -397,7 +355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601420872"/>
+        <c:crossAx val="414274504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -426,13 +384,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -776,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -800,92 +758,64 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>41671</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>41685</v>
+        <v>41699</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>41699</v>
+        <v>41713</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>41713</v>
+        <v>41730</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>41730</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>41744</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
